--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ualbertaca-my.sharepoint.com/personal/abinash1_ualberta_ca/Documents/Desktop/side/CAN-USB RF Module/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="68" documentId="11_F25DC773A252ABDACC104874091948605ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4BEFC3C-5E2F-4269-98D6-1506A2B252C8}"/>
+  <xr:revisionPtr revIDLastSave="108" documentId="11_F25DC773A252ABDACC104874091948605ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E76645A-7568-4BC4-8B6A-6DC8862F285B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Parts Detailed" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>Part Purpose</t>
   </si>
@@ -53,12 +54,6 @@
     <t>Data Sheet</t>
   </si>
   <si>
-    <t>LDO Voltage Regulator 5v to 3v3</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ca/en/products/detail/texas-instruments/TLV2217-33KVURG3/1096010</t>
-  </si>
-  <si>
     <t>MCU</t>
   </si>
   <si>
@@ -83,9 +78,6 @@
     <t>https://media.digikey.com/pdf/Data%20Sheets/Semtech%20PDFs/SX1280-81_Rev3.2_Mar2020.pdf</t>
   </si>
   <si>
-    <t>TLV2217-33KVURG3</t>
-  </si>
-  <si>
     <t>CAN Tranciever</t>
   </si>
   <si>
@@ -153,13 +145,73 @@
   </si>
   <si>
     <t>https://www.digikey.ca/en/products/detail/ftdi-future-technology-devices-international-ltd/FT234XD-T/3904810</t>
+  </si>
+  <si>
+    <t>LDO Voltage Regulator 12v to 5v and 3v3</t>
+  </si>
+  <si>
+    <t>TLV76601QWDRBRQ1</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/texas-instruments/TLV76601QWDRBRQ1/15857272</t>
+  </si>
+  <si>
+    <t>EFUSE</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/analog-devices-inc-maxim-integrated/MAX14572EUD-T/3877577</t>
+  </si>
+  <si>
+    <t>MAX14572</t>
+  </si>
+  <si>
+    <t>https://www.ti.com/document-viewer/TLV766-Q1/datasheet</t>
+  </si>
+  <si>
+    <t>Power</t>
+  </si>
+  <si>
+    <t>Part</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Part #</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I Max </t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Qty</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>Availibility On JLC</t>
+  </si>
+  <si>
+    <t>DS</t>
+  </si>
+  <si>
+    <t>DigiKey</t>
+  </si>
+  <si>
+    <t>JLC</t>
+  </si>
+  <si>
+    <t>Manufacturer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,13 +227,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -193,16 +257,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -216,10 +290,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -485,180 +555,278 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" customWidth="1"/>
-    <col min="6" max="6" width="20.85546875" customWidth="1"/>
-    <col min="7" max="7" width="23.85546875" customWidth="1"/>
+    <col min="1" max="1" width="35.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.85546875" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    </row>
+    <row r="6" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="1" t="s">
+    </row>
+    <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>38</v>
-      </c>
+    </row>
+    <row r="13" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C9" r:id="rId1" xr:uid="{120BA7F7-B911-41AE-80A5-765B4F0151E4}"/>
-    <hyperlink ref="C11" r:id="rId2" xr:uid="{2A55919A-EF1F-4422-8A7E-04750FD25E41}"/>
-    <hyperlink ref="C10" r:id="rId3" xr:uid="{C7F9B4BB-0A1C-4AE1-95BC-B1C8EECD9AD7}"/>
-    <hyperlink ref="C8" r:id="rId4" xr:uid="{093BD9D5-6043-49E7-A672-9E4D6EDFE1B6}"/>
-    <hyperlink ref="C6" r:id="rId5" xr:uid="{56E71067-6A9D-4B28-BB8B-F9FC50BFF2BB}"/>
-    <hyperlink ref="C7" r:id="rId6" xr:uid="{C42E36FA-318A-45E7-85E7-1E340F3DBE45}"/>
-    <hyperlink ref="C5" r:id="rId7" xr:uid="{5906285C-E850-434B-A92C-61C7B627D9EB}"/>
-    <hyperlink ref="C4" r:id="rId8" xr:uid="{548CC8D9-0B1F-4F7A-8CC5-A7549B926B38}"/>
-    <hyperlink ref="C3" r:id="rId9" xr:uid="{9058F8CC-E4F4-489F-9B3B-6969AB69FB9A}"/>
-    <hyperlink ref="C2" r:id="rId10" xr:uid="{18C22CA7-46B6-478F-9972-1FAC3BA31C01}"/>
-    <hyperlink ref="C12" r:id="rId11" xr:uid="{279C9AFA-182F-4373-966C-6AC92F589FF6}"/>
-    <hyperlink ref="E3" r:id="rId12" xr:uid="{759425C7-966B-4918-BCB2-1F502C01C921}"/>
-    <hyperlink ref="E4" r:id="rId13" xr:uid="{F079C007-3EC1-4CD0-B63A-529386FE93DA}"/>
+    <hyperlink ref="E4" r:id="rId1" xr:uid="{F079C007-3EC1-4CD0-B63A-529386FE93DA}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{759425C7-966B-4918-BCB2-1F502C01C921}"/>
+    <hyperlink ref="C12" r:id="rId3" xr:uid="{279C9AFA-182F-4373-966C-6AC92F589FF6}"/>
+    <hyperlink ref="C3" r:id="rId4" xr:uid="{9058F8CC-E4F4-489F-9B3B-6969AB69FB9A}"/>
+    <hyperlink ref="C4" r:id="rId5" xr:uid="{548CC8D9-0B1F-4F7A-8CC5-A7549B926B38}"/>
+    <hyperlink ref="C5" r:id="rId6" xr:uid="{5906285C-E850-434B-A92C-61C7B627D9EB}"/>
+    <hyperlink ref="C7" r:id="rId7" xr:uid="{C42E36FA-318A-45E7-85E7-1E340F3DBE45}"/>
+    <hyperlink ref="C6" r:id="rId8" xr:uid="{56E71067-6A9D-4B28-BB8B-F9FC50BFF2BB}"/>
+    <hyperlink ref="C8" r:id="rId9" xr:uid="{093BD9D5-6043-49E7-A672-9E4D6EDFE1B6}"/>
+    <hyperlink ref="C10" r:id="rId10" xr:uid="{C7F9B4BB-0A1C-4AE1-95BC-B1C8EECD9AD7}"/>
+    <hyperlink ref="C11" r:id="rId11" xr:uid="{2A55919A-EF1F-4422-8A7E-04750FD25E41}"/>
+    <hyperlink ref="C9" r:id="rId12" xr:uid="{120BA7F7-B911-41AE-80A5-765B4F0151E4}"/>
+    <hyperlink ref="C2" r:id="rId13" xr:uid="{08C319C7-07F4-4BF1-A365-D841A0C38084}"/>
+    <hyperlink ref="E2" r:id="rId14" xr:uid="{A883346A-D359-46A2-86CD-D53AC69040F3}"/>
   </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId15"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{512C82DD-9232-47E8-94BD-A2C1E0D7779D}">
+  <dimension ref="A1:N3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:N3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="108" documentId="11_F25DC773A252ABDACC104874091948605ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E76645A-7568-4BC4-8B6A-6DC8862F285B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-18765" yWindow="3285" windowWidth="21600" windowHeight="11505" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -290,6 +290,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -756,7 +760,7 @@
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ualbertaca-my.sharepoint.com/personal/abinash1_ualberta_ca/Documents/Desktop/side/CAN-USB RF Module/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="108" documentId="11_F25DC773A252ABDACC104874091948605ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E76645A-7568-4BC4-8B6A-6DC8862F285B}"/>
+  <xr:revisionPtr revIDLastSave="111" documentId="11_F25DC773A252ABDACC104874091948605ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{798DE35C-9051-4CC1-8B80-BB9AB3CCDC96}"/>
   <bookViews>
-    <workbookView xWindow="-18765" yWindow="3285" windowWidth="21600" windowHeight="11505" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Part Purpose</t>
   </si>
@@ -205,13 +205,22 @@
   </si>
   <si>
     <t>Manufacturer</t>
+  </si>
+  <si>
+    <t>https://www.mouser.ca/ProductDetail/Texas-Instruments/LP38690DTX-5.0-NOPB?qs=1FNqv8aZn1TOscopYR%2Fzlg%3D%3D</t>
+  </si>
+  <si>
+    <t>LP38690DTX-5.0/NOPB</t>
+  </si>
+  <si>
+    <t>LDO 12v to 5V</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,6 +242,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -262,7 +277,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -273,6 +288,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -290,10 +306,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -559,10 +571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -732,6 +744,17 @@
         <v>40</v>
       </c>
       <c r="D13"/>
+    </row>
+    <row r="14" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -759,8 +782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{512C82DD-9232-47E8-94BD-A2C1E0D7779D}">
   <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ualbertaca-my.sharepoint.com/personal/abinash1_ualberta_ca/Documents/Desktop/side/CAN-USB RF Module/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="111" documentId="11_F25DC773A252ABDACC104874091948605ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{798DE35C-9051-4CC1-8B80-BB9AB3CCDC96}"/>
+  <xr:revisionPtr revIDLastSave="144" documentId="11_F25DC773A252ABDACC104874091948605ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3BA957CC-5C82-4323-8AA2-C61E7080C17E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="4260" yWindow="0" windowWidth="21600" windowHeight="11535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
   <si>
     <t>Part Purpose</t>
   </si>
@@ -147,15 +147,6 @@
     <t>https://www.digikey.ca/en/products/detail/ftdi-future-technology-devices-international-ltd/FT234XD-T/3904810</t>
   </si>
   <si>
-    <t>LDO Voltage Regulator 12v to 5v and 3v3</t>
-  </si>
-  <si>
-    <t>TLV76601QWDRBRQ1</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ca/en/products/detail/texas-instruments/TLV76601QWDRBRQ1/15857272</t>
-  </si>
-  <si>
     <t>EFUSE</t>
   </si>
   <si>
@@ -165,9 +156,6 @@
     <t>MAX14572</t>
   </si>
   <si>
-    <t>https://www.ti.com/document-viewer/TLV766-Q1/datasheet</t>
-  </si>
-  <si>
     <t>Power</t>
   </si>
   <si>
@@ -207,13 +195,25 @@
     <t>Manufacturer</t>
   </si>
   <si>
-    <t>https://www.mouser.ca/ProductDetail/Texas-Instruments/LP38690DTX-5.0-NOPB?qs=1FNqv8aZn1TOscopYR%2Fzlg%3D%3D</t>
-  </si>
-  <si>
-    <t>LP38690DTX-5.0/NOPB</t>
-  </si>
-  <si>
     <t>LDO 12v to 5V</t>
+  </si>
+  <si>
+    <t>LDO 5v to 3v3</t>
+  </si>
+  <si>
+    <t>AZ1117IH-3.3TRG1</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/diodes-incorporated/AZ1117IH-3-3TRG1/5699672</t>
+  </si>
+  <si>
+    <t>https://www.diodes.com/assets/Datasheets/AZ1117I.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/diodes-incorporated/AZ1117IH-5-0TRG1/5699673</t>
+  </si>
+  <si>
+    <t>AZ1117IH-5.0TRG1</t>
   </si>
 </sst>
 </file>
@@ -285,10 +285,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -306,6 +306,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -573,8 +577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -606,18 +610,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -735,24 +739,27 @@
     </row>
     <row r="13" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D13"/>
     </row>
-    <row r="14" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="C14" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>56</v>
       </c>
     </row>
@@ -770,11 +777,9 @@
     <hyperlink ref="C10" r:id="rId10" xr:uid="{C7F9B4BB-0A1C-4AE1-95BC-B1C8EECD9AD7}"/>
     <hyperlink ref="C11" r:id="rId11" xr:uid="{2A55919A-EF1F-4422-8A7E-04750FD25E41}"/>
     <hyperlink ref="C9" r:id="rId12" xr:uid="{120BA7F7-B911-41AE-80A5-765B4F0151E4}"/>
-    <hyperlink ref="C2" r:id="rId13" xr:uid="{08C319C7-07F4-4BF1-A365-D841A0C38084}"/>
-    <hyperlink ref="E2" r:id="rId14" xr:uid="{A883346A-D359-46A2-86CD-D53AC69040F3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId15"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
 
@@ -794,61 +799,61 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" t="s">
         <v>45</v>
       </c>
-      <c r="B2" t="s">
+      <c r="F2" t="s">
         <v>46</v>
       </c>
-      <c r="C2" t="s">
+      <c r="G2" t="s">
         <v>47</v>
       </c>
-      <c r="D2" t="s">
+      <c r="H2" t="s">
         <v>48</v>
       </c>
-      <c r="E2" t="s">
+      <c r="I2" t="s">
         <v>49</v>
       </c>
-      <c r="F2" t="s">
+      <c r="J2" t="s">
         <v>50</v>
       </c>
-      <c r="G2" t="s">
+      <c r="K2" t="s">
         <v>51</v>
       </c>
-      <c r="H2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I2" t="s">
-        <v>53</v>
-      </c>
-      <c r="J2" t="s">
-        <v>54</v>
-      </c>
-      <c r="K2" t="s">
-        <v>55</v>
-      </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
+      <c r="A3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ualbertaca-my.sharepoint.com/personal/abinash1_ualberta_ca/Documents/Desktop/side/CAN-USB RF Module/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="144" documentId="11_F25DC773A252ABDACC104874091948605ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3BA957CC-5C82-4323-8AA2-C61E7080C17E}"/>
+  <xr:revisionPtr revIDLastSave="149" documentId="11_F25DC773A252ABDACC104874091948605ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{747B714C-1B97-4E5D-930D-238249E695AD}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="4260" yWindow="0" windowWidth="21600" windowHeight="11535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
   <si>
     <t>Part Purpose</t>
   </si>
@@ -214,13 +214,22 @@
   </si>
   <si>
     <t>AZ1117IH-5.0TRG1</t>
+  </si>
+  <si>
+    <t>Common cathode Shotkey</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/nexperia-usa-inc/BAT160C-115/1232113</t>
+  </si>
+  <si>
+    <t>BAT160C</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -248,6 +257,14 @@
       <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -277,7 +294,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -286,6 +303,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -575,10 +595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -763,6 +783,17 @@
         <v>56</v>
       </c>
     </row>
+    <row r="16" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E4" r:id="rId1" xr:uid="{F079C007-3EC1-4CD0-B63A-529386FE93DA}"/>
@@ -777,9 +808,10 @@
     <hyperlink ref="C10" r:id="rId10" xr:uid="{C7F9B4BB-0A1C-4AE1-95BC-B1C8EECD9AD7}"/>
     <hyperlink ref="C11" r:id="rId11" xr:uid="{2A55919A-EF1F-4422-8A7E-04750FD25E41}"/>
     <hyperlink ref="C9" r:id="rId12" xr:uid="{120BA7F7-B911-41AE-80A5-765B4F0151E4}"/>
+    <hyperlink ref="C2" r:id="rId13" xr:uid="{049E4839-68CF-45A6-B11E-7A08BBCBDFE0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId13"/>
+  <pageSetup orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
 
@@ -838,22 +870,22 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
